--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Wnt16</t>
+  </si>
+  <si>
+    <t>Lrp5</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt16</t>
-  </si>
-  <si>
-    <t>Lrp5</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2114893333333333</v>
+        <v>0.702341</v>
       </c>
       <c r="H2">
-        <v>0.634468</v>
+        <v>2.107023</v>
       </c>
       <c r="I2">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="J2">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N2">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O2">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P2">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q2">
-        <v>2.860096513798667</v>
+        <v>14.98743720766</v>
       </c>
       <c r="R2">
-        <v>25.740868624188</v>
+        <v>134.88693486894</v>
       </c>
       <c r="S2">
-        <v>0.05277766895046383</v>
+        <v>0.1749994216528078</v>
       </c>
       <c r="T2">
-        <v>0.05277766895046383</v>
+        <v>0.1749994216528079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2114893333333333</v>
+        <v>0.702341</v>
       </c>
       <c r="H3">
-        <v>0.634468</v>
+        <v>2.107023</v>
       </c>
       <c r="I3">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="J3">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.790704</v>
       </c>
       <c r="O3">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P3">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q3">
-        <v>2.452620931719111</v>
+        <v>8.144979279354667</v>
       </c>
       <c r="R3">
-        <v>22.073588385472</v>
+        <v>73.30481351419199</v>
       </c>
       <c r="S3">
-        <v>0.04525847815650372</v>
+        <v>0.09510409575111833</v>
       </c>
       <c r="T3">
-        <v>0.04525847815650372</v>
+        <v>0.09510409575111833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2114893333333333</v>
+        <v>0.702341</v>
       </c>
       <c r="H4">
-        <v>0.634468</v>
+        <v>2.107023</v>
       </c>
       <c r="I4">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="J4">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N4">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O4">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P4">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q4">
-        <v>1.999107082623556</v>
+        <v>7.440778714500333</v>
       </c>
       <c r="R4">
-        <v>17.991963743612</v>
+        <v>66.967008430503</v>
       </c>
       <c r="S4">
-        <v>0.03688973826379786</v>
+        <v>0.08688156311464434</v>
       </c>
       <c r="T4">
-        <v>0.03688973826379787</v>
+        <v>0.08688156311464434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2114893333333333</v>
+        <v>0.702341</v>
       </c>
       <c r="H5">
-        <v>0.634468</v>
+        <v>2.107023</v>
       </c>
       <c r="I5">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="J5">
-        <v>0.1527797075198618</v>
+        <v>0.3978241315558134</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N5">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O5">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P5">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q5">
-        <v>0.9675238695088888</v>
+        <v>3.497569919147666</v>
       </c>
       <c r="R5">
-        <v>8.70771482558</v>
+        <v>31.478129272329</v>
       </c>
       <c r="S5">
-        <v>0.01785382214909635</v>
+        <v>0.04083905103724287</v>
       </c>
       <c r="T5">
-        <v>0.01785382214909636</v>
+        <v>0.04083905103724287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>2.865963</v>
       </c>
       <c r="I6">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="J6">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N6">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O6">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P6">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q6">
-        <v>12.919376209637</v>
+        <v>20.38584320246</v>
       </c>
       <c r="R6">
-        <v>116.274385886733</v>
+        <v>183.47258882214</v>
       </c>
       <c r="S6">
-        <v>0.2384026403826169</v>
+        <v>0.2380334089748171</v>
       </c>
       <c r="T6">
-        <v>0.2384026403826169</v>
+        <v>0.2380334089748171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>2.865963</v>
       </c>
       <c r="I7">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="J7">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.790704</v>
       </c>
       <c r="O7">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P7">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q7">
         <v>11.07876337866133</v>
@@ -883,10 +883,10 @@
         <v>99.70887040795199</v>
       </c>
       <c r="S7">
-        <v>0.204437613611479</v>
+        <v>0.1293601539096452</v>
       </c>
       <c r="T7">
-        <v>0.204437613611479</v>
+        <v>0.1293601539096452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>2.865963</v>
       </c>
       <c r="I8">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="J8">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N8">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O8">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P8">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q8">
-        <v>9.030190540479667</v>
+        <v>10.12091300709367</v>
       </c>
       <c r="R8">
-        <v>81.271714864317</v>
+        <v>91.08821706384299</v>
       </c>
       <c r="S8">
-        <v>0.1666350784337885</v>
+        <v>0.118175902811092</v>
       </c>
       <c r="T8">
-        <v>0.1666350784337885</v>
+        <v>0.118175902811092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>2.865963</v>
       </c>
       <c r="I9">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="J9">
-        <v>0.6901230462414899</v>
+        <v>0.5411185552061337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N9">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O9">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P9">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q9">
-        <v>4.370413656211666</v>
+        <v>4.757378527994333</v>
       </c>
       <c r="R9">
-        <v>39.333722905905</v>
+        <v>42.816406751949</v>
       </c>
       <c r="S9">
-        <v>0.08064771381360546</v>
+        <v>0.05554908951057947</v>
       </c>
       <c r="T9">
-        <v>0.08064771381360547</v>
+        <v>0.05554908951057947</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,10 +1039,10 @@
         <v>0.323382</v>
       </c>
       <c r="I10">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="J10">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.523597</v>
+        <v>21.33926</v>
       </c>
       <c r="N10">
-        <v>40.570791</v>
+        <v>64.01778</v>
       </c>
       <c r="O10">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="P10">
-        <v>0.3454494697445509</v>
+        <v>0.4398914187744692</v>
       </c>
       <c r="Q10">
-        <v>1.457762615018</v>
+        <v>2.30024419244</v>
       </c>
       <c r="R10">
-        <v>13.119863535162</v>
+        <v>20.70219773196</v>
       </c>
       <c r="S10">
-        <v>0.02690025050993729</v>
+        <v>0.02685858814684429</v>
       </c>
       <c r="T10">
-        <v>0.02690025050993729</v>
+        <v>0.0268585881468443</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1101,10 +1101,10 @@
         <v>0.323382</v>
       </c>
       <c r="I11">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="J11">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,10 +1119,10 @@
         <v>34.790704</v>
       </c>
       <c r="O11">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="P11">
-        <v>0.2962335698320406</v>
+        <v>0.23906065069302</v>
       </c>
       <c r="Q11">
         <v>1.250076382325333</v>
@@ -1131,10 +1131,10 @@
         <v>11.250687440928</v>
       </c>
       <c r="S11">
-        <v>0.0230677940939598</v>
+        <v>0.01459640103225648</v>
       </c>
       <c r="T11">
-        <v>0.0230677940939598</v>
+        <v>0.01459640103225648</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1163,10 +1163,10 @@
         <v>0.323382</v>
       </c>
       <c r="I12">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="J12">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.452519666666667</v>
+        <v>10.59425366666667</v>
       </c>
       <c r="N12">
-        <v>28.357559</v>
+        <v>31.782761</v>
       </c>
       <c r="O12">
-        <v>0.2414570551459008</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="P12">
-        <v>0.2414570551459009</v>
+        <v>0.2183918878295978</v>
       </c>
       <c r="Q12">
-        <v>1.018924904948667</v>
+        <v>1.141996979744667</v>
       </c>
       <c r="R12">
-        <v>9.170324144538</v>
+        <v>10.277972817702</v>
       </c>
       <c r="S12">
-        <v>0.0188023309910405</v>
+        <v>0.01333442190386148</v>
       </c>
       <c r="T12">
-        <v>0.0188023309910405</v>
+        <v>0.01333442190386148</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,10 +1225,10 @@
         <v>0.323382</v>
       </c>
       <c r="I13">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="J13">
-        <v>0.07787029034906086</v>
+        <v>0.06105731323805295</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.574811666666666</v>
+        <v>4.979874333333333</v>
       </c>
       <c r="N13">
-        <v>13.724435</v>
+        <v>14.939623</v>
       </c>
       <c r="O13">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="P13">
-        <v>0.1168599052775075</v>
+        <v>0.102656042702913</v>
       </c>
       <c r="Q13">
-        <v>0.4931372487966666</v>
+        <v>0.5368005738873333</v>
       </c>
       <c r="R13">
-        <v>4.43823523917</v>
+        <v>4.831205164986</v>
       </c>
       <c r="S13">
-        <v>0.009099914754123259</v>
+        <v>0.0062679021550907</v>
       </c>
       <c r="T13">
-        <v>0.009099914754123261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.109672</v>
-      </c>
-      <c r="H14">
-        <v>0.329016</v>
-      </c>
-      <c r="I14">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="J14">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>13.523597</v>
-      </c>
-      <c r="N14">
-        <v>40.570791</v>
-      </c>
-      <c r="O14">
-        <v>0.3454494697445509</v>
-      </c>
-      <c r="P14">
-        <v>0.3454494697445509</v>
-      </c>
-      <c r="Q14">
-        <v>1.483159930184</v>
-      </c>
-      <c r="R14">
-        <v>13.348439371656</v>
-      </c>
-      <c r="S14">
-        <v>0.02736890990153294</v>
-      </c>
-      <c r="T14">
-        <v>0.02736890990153295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.109672</v>
-      </c>
-      <c r="H15">
-        <v>0.329016</v>
-      </c>
-      <c r="I15">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="J15">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>11.59690133333333</v>
-      </c>
-      <c r="N15">
-        <v>34.790704</v>
-      </c>
-      <c r="O15">
-        <v>0.2962335698320406</v>
-      </c>
-      <c r="P15">
-        <v>0.2962335698320406</v>
-      </c>
-      <c r="Q15">
-        <v>1.271855363029333</v>
-      </c>
-      <c r="R15">
-        <v>11.446698267264</v>
-      </c>
-      <c r="S15">
-        <v>0.02346968397009814</v>
-      </c>
-      <c r="T15">
-        <v>0.02346968397009814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.109672</v>
-      </c>
-      <c r="H16">
-        <v>0.329016</v>
-      </c>
-      <c r="I16">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="J16">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>9.452519666666667</v>
-      </c>
-      <c r="N16">
-        <v>28.357559</v>
-      </c>
-      <c r="O16">
-        <v>0.2414570551459008</v>
-      </c>
-      <c r="P16">
-        <v>0.2414570551459009</v>
-      </c>
-      <c r="Q16">
-        <v>1.036676736882667</v>
-      </c>
-      <c r="R16">
-        <v>9.330090631944</v>
-      </c>
-      <c r="S16">
-        <v>0.01912990745727399</v>
-      </c>
-      <c r="T16">
-        <v>0.019129907457274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.109672</v>
-      </c>
-      <c r="H17">
-        <v>0.329016</v>
-      </c>
-      <c r="I17">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="J17">
-        <v>0.07922695588958756</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.574811666666666</v>
-      </c>
-      <c r="N17">
-        <v>13.724435</v>
-      </c>
-      <c r="O17">
-        <v>0.1168599052775075</v>
-      </c>
-      <c r="P17">
-        <v>0.1168599052775075</v>
-      </c>
-      <c r="Q17">
-        <v>0.5017287451066665</v>
-      </c>
-      <c r="R17">
-        <v>4.515558705959999</v>
-      </c>
-      <c r="S17">
-        <v>0.009258454560682468</v>
-      </c>
-      <c r="T17">
-        <v>0.00925845456068247</v>
+        <v>0.006267902155090701</v>
       </c>
     </row>
   </sheetData>
